--- a/豆丁世纪/安卓/应用市场/应用商店账号.xlsx
+++ b/豆丁世纪/安卓/应用市场/应用商店账号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6870"/>
+    <workbookView windowWidth="18600" windowHeight="6870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
   <si>
     <t>序号</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>http://developer.lenovomm.com/developer/login_info.jspx</t>
+  </si>
+  <si>
+    <t>全国互联网</t>
+  </si>
+  <si>
+    <t>docin1</t>
+  </si>
+  <si>
+    <t>doucin.123</t>
   </si>
   <si>
     <t>友盟</t>
@@ -335,8 +344,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -403,7 +412,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,6 +433,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -432,64 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -498,14 +539,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -515,35 +548,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -566,19 +575,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,163 +731,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,17 +821,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,19 +835,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,6 +856,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -877,11 +880,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,10 +902,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,137 +914,137 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1117,6 +1126,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1517,17 +1529,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="6" customWidth="1"/>
     <col min="2" max="2" width="13" style="6" customWidth="1"/>
-    <col min="3" max="5" width="9" style="6"/>
+    <col min="3" max="3" width="15.2727272727273" style="6" customWidth="1"/>
+    <col min="4" max="5" width="9" style="6"/>
     <col min="6" max="6" width="44.1636363636364" style="6" customWidth="1"/>
     <col min="7" max="7" width="22.1636363636364" style="6" customWidth="1"/>
     <col min="8" max="8" width="17.6636363636364" style="6" customWidth="1"/>
@@ -1556,7 +1569,7 @@
       <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" s="5" customFormat="1" ht="15" spans="1:9">
       <c r="A2" s="10">
@@ -1608,7 +1621,7 @@
       <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="32" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1635,7 +1648,7 @@
       <c r="H4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1662,7 +1675,7 @@
       <c r="H5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="32" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1716,7 +1729,7 @@
       <c r="H7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="32" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1790,7 +1803,7 @@
       <c r="H10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1803,7 +1816,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="14"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="32"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" s="7" customFormat="1" spans="1:9">
       <c r="A12" s="23"/>
@@ -1814,7 +1827,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="32"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10">
@@ -2137,6 +2150,17 @@
       </c>
       <c r="H27" s="12" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2237,7 @@
   <sheetPr/>
   <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2226,12 +2250,12 @@
   <sheetData>
     <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -2243,18 +2267,18 @@
     <row r="3" ht="17.25" customHeight="1"/>
     <row r="4" ht="20.25" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/豆丁世纪/安卓/应用市场/应用商店账号.xlsx
+++ b/豆丁世纪/安卓/应用市场/应用商店账号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6870" activeTab="2"/>
+    <workbookView windowWidth="18600" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -345,9 +345,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -412,9 +412,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,29 +471,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,22 +502,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,57 +547,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -575,31 +575,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,151 +749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,6 +799,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -821,26 +841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -859,8 +859,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,148 +899,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1898,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="1:8">
+    <row r="17" ht="15" spans="1:8">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -2237,7 +2237,7 @@
   <sheetPr/>
   <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/豆丁世纪/安卓/应用市场/应用商店账号.xlsx
+++ b/豆丁世纪/安卓/应用市场/应用商店账号.xlsx
@@ -344,10 +344,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -412,16 +412,113 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,66 +530,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -501,38 +538,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,14 +553,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -575,187 +575,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,44 +799,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,8 +824,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,168 +894,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/豆丁世纪/安卓/应用市场/应用商店账号.xlsx
+++ b/豆丁世纪/安卓/应用市场/应用商店账号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6870"/>
+    <workbookView windowWidth="18600" windowHeight="6980"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
   <si>
     <t>序号</t>
   </si>
@@ -344,10 +344,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -411,31 +411,123 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,93 +540,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,14 +553,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -575,187 +575,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +801,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +845,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -847,20 +873,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,168 +894,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1876,7 +1876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" ht="28" spans="1:8">
+    <row r="16" ht="28" spans="1:9">
       <c r="A16" s="10">
         <v>11</v>
       </c>
@@ -1891,11 +1891,14 @@
       <c r="F16" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="22" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>11</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:8">
@@ -2171,43 +2174,44 @@
     <hyperlink ref="G23" r:id="rId4" display="mobile@docin.com"/>
     <hyperlink ref="G14" r:id="rId5" display="bjia.docin@gmail.com" tooltip="mailto:bjia.docin@gmail.com"/>
     <hyperlink ref="G21" r:id="rId4" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
-    <hyperlink ref="G16" r:id="rId6" display="chunyu.cai@docin.com" tooltip="mailto:chunyu.cai@docin.com"/>
     <hyperlink ref="G7" r:id="rId4" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
-    <hyperlink ref="G4" r:id="rId7" display="docin1012@gmail.com" tooltip="mailto:docin1012@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId6" display="docin1012@gmail.com" tooltip="mailto:docin1012@gmail.com"/>
     <hyperlink ref="G5" r:id="rId4" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
-    <hyperlink ref="F14" r:id="rId8" display="https://play.google.com/apps/publish/" tooltip="https://play.google.com/apps/publish/"/>
-    <hyperlink ref="F2" r:id="rId9" display="http://developer.baidu.com/services" tooltip="http://developer.baidu.com/services"/>
-    <hyperlink ref="F21" r:id="rId10" display="http://app.taobao.com/certify/listCertification.htm"/>
-    <hyperlink ref="F18" r:id="rId11" display="http://app.meizu.com/" tooltip="http://app.meizu.com/"/>
-    <hyperlink ref="F20" r:id="rId12" display="http://dev.sj.91.com/"/>
-    <hyperlink ref="F16" r:id="rId13" display="http://dev.store.nearme.com.cn/user/user_login"/>
-    <hyperlink ref="F27" r:id="rId14" display="http://developer.lenovomm.com/developer/login_info.jspx"/>
-    <hyperlink ref="F9" r:id="rId15" display="http://app.sogou.com/developer/app" tooltip="http://app.sogou.com/developer/app"/>
-    <hyperlink ref="F3" r:id="rId16" display="http://developer.xiaomi.com/myitems/0?userId=118263915"/>
-    <hyperlink ref="F24" r:id="rId17" display="http://dev.anzhi.com/index.php" tooltip="http://dev.anzhi.com/index.php"/>
-    <hyperlink ref="F22" r:id="rId18" display="https://developer.amazon.com/home.html" tooltip="https://developer.amazon.com/home.html"/>
-    <hyperlink ref="F25" r:id="rId19" display="http://m.163.com/devsoft/toupload.html"/>
-    <hyperlink ref="F15" r:id="rId20" display="http://dev.10086.cn/cmdn/supesite/newdev.controlpanel.php?operation=EL_COMMERCIAL"/>
-    <hyperlink ref="F8" r:id="rId21" display="http://dev.mumayi.com/user/index " tooltip="http://dev.mumayi.com/user/index "/>
-    <hyperlink ref="F26" r:id="rId22" display="http://www.nduoa.com/developer/apk/index/list/publish"/>
-    <hyperlink ref="F5" r:id="rId23" display="http://www.wandoujia.com/apps/dev/home" tooltip="http://www.wandoujia.com/apps/dev/home"/>
-    <hyperlink ref="F6" r:id="rId24" display="http://tap.3g.qq.com:8080" tooltip="http://tap.3g.qq.com:8080"/>
-    <hyperlink ref="F4" r:id="rId25" display="http://open.app.360.cn" tooltip="http://open.app.360.cn"/>
-    <hyperlink ref="F7" r:id="rId26" display="http://www.appchina.com/market/dev/index.action" tooltip="http://www.appchina.com/market/dev/index.action"/>
-    <hyperlink ref="F19" r:id="rId27" display="http://dev.gfan.com/Aspx/DevApp/LoginUser.aspx" tooltip="http://dev.gfan.com/Aspx/DevApp/LoginUser.aspx"/>
-    <hyperlink ref="I6" r:id="rId28" display="http://open.qq.com/" tooltip="http://open.qq.com/"/>
+    <hyperlink ref="F14" r:id="rId7" display="https://play.google.com/apps/publish/" tooltip="https://play.google.com/apps/publish/"/>
+    <hyperlink ref="F2" r:id="rId8" display="http://developer.baidu.com/services" tooltip="http://developer.baidu.com/services"/>
+    <hyperlink ref="F21" r:id="rId9" display="http://app.taobao.com/certify/listCertification.htm"/>
+    <hyperlink ref="F18" r:id="rId10" display="http://app.meizu.com/" tooltip="http://app.meizu.com/"/>
+    <hyperlink ref="F20" r:id="rId11" display="http://dev.sj.91.com/"/>
+    <hyperlink ref="F16" r:id="rId12" display="http://dev.store.nearme.com.cn/user/user_login"/>
+    <hyperlink ref="F27" r:id="rId13" display="http://developer.lenovomm.com/developer/login_info.jspx"/>
+    <hyperlink ref="F9" r:id="rId14" display="http://app.sogou.com/developer/app" tooltip="http://app.sogou.com/developer/app"/>
+    <hyperlink ref="F3" r:id="rId15" display="http://developer.xiaomi.com/myitems/0?userId=118263915"/>
+    <hyperlink ref="F24" r:id="rId16" display="http://dev.anzhi.com/index.php" tooltip="http://dev.anzhi.com/index.php"/>
+    <hyperlink ref="F22" r:id="rId17" display="https://developer.amazon.com/home.html" tooltip="https://developer.amazon.com/home.html"/>
+    <hyperlink ref="F25" r:id="rId18" display="http://m.163.com/devsoft/toupload.html"/>
+    <hyperlink ref="F15" r:id="rId19" display="http://dev.10086.cn/cmdn/supesite/newdev.controlpanel.php?operation=EL_COMMERCIAL"/>
+    <hyperlink ref="F8" r:id="rId20" display="http://dev.mumayi.com/user/index " tooltip="http://dev.mumayi.com/user/index "/>
+    <hyperlink ref="F26" r:id="rId21" display="http://www.nduoa.com/developer/apk/index/list/publish"/>
+    <hyperlink ref="F5" r:id="rId22" display="http://www.wandoujia.com/apps/dev/home" tooltip="http://www.wandoujia.com/apps/dev/home"/>
+    <hyperlink ref="F6" r:id="rId23" display="http://tap.3g.qq.com:8080" tooltip="http://tap.3g.qq.com:8080"/>
+    <hyperlink ref="F4" r:id="rId24" display="http://open.app.360.cn" tooltip="http://open.app.360.cn"/>
+    <hyperlink ref="F7" r:id="rId25" display="http://www.appchina.com/market/dev/index.action" tooltip="http://www.appchina.com/market/dev/index.action"/>
+    <hyperlink ref="F19" r:id="rId26" display="http://dev.gfan.com/Aspx/DevApp/LoginUser.aspx" tooltip="http://dev.gfan.com/Aspx/DevApp/LoginUser.aspx"/>
+    <hyperlink ref="I6" r:id="rId27" display="http://open.qq.com/" tooltip="http://open.qq.com/"/>
     <hyperlink ref="G3" r:id="rId4" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
     <hyperlink ref="G25" r:id="rId4" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
     <hyperlink ref="G8" r:id="rId4" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
-    <hyperlink ref="G9" r:id="rId29" display="2909080509@qq.com" tooltip="mailto:2909080509@qq.com"/>
-    <hyperlink ref="I3" r:id="rId30" display="http://dev.xiaomi.com/home?userId=118263915" tooltip="http://dev.xiaomi.com/home?userId=118263915"/>
-    <hyperlink ref="I4" r:id="rId31" display="http://dev.360.cn/" tooltip="http://dev.360.cn/"/>
-    <hyperlink ref="I7" r:id="rId32" display="http://dev.appchina.com/dev/index"/>
-    <hyperlink ref="F10" r:id="rId33" display="http://developer.huawei.com/" tooltip="http://developer.huawei.com/"/>
-    <hyperlink ref="G10" r:id="rId6" display="chunyu.cai@docin.com" tooltip="mailto:chunyu.cai@docin.com"/>
-    <hyperlink ref="I10" r:id="rId7" display="docin1012@gmail.com" tooltip="mailto:docin1012@gmail.com"/>
+    <hyperlink ref="G9" r:id="rId28" display="2909080509@qq.com" tooltip="mailto:2909080509@qq.com"/>
+    <hyperlink ref="I3" r:id="rId29" display="http://dev.xiaomi.com/home?userId=118263915" tooltip="http://dev.xiaomi.com/home?userId=118263915"/>
+    <hyperlink ref="I4" r:id="rId30" display="http://dev.360.cn/" tooltip="http://dev.360.cn/"/>
+    <hyperlink ref="I7" r:id="rId31" display="http://dev.appchina.com/dev/index"/>
+    <hyperlink ref="F10" r:id="rId32" display="http://developer.huawei.com/" tooltip="http://developer.huawei.com/"/>
+    <hyperlink ref="G10" r:id="rId33" display="chunyu.cai@docin.com" tooltip="mailto:chunyu.cai@docin.com"/>
+    <hyperlink ref="I10" r:id="rId6" display="docin1012@gmail.com" tooltip="mailto:docin1012@gmail.com"/>
     <hyperlink ref="I5" r:id="rId34" display="http://open.uc.cn/login?redirectUrl=http%3A%2F%2Faliapp.open.uc.cn%2F.%2Fapp%2Fmng%2Findex"/>
+    <hyperlink ref="G16" r:id="rId33" display="chunyu.cai@docin.com" tooltip="mailto:chunyu.cai@docin.com"/>
     <hyperlink ref="G22" r:id="rId4" display="mobile@docin.com"/>
+    <hyperlink ref="I16" r:id="rId4" display="mobile@docin.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/豆丁世纪/安卓/应用市场/应用商店账号.xlsx
+++ b/豆丁世纪/安卓/应用市场/应用商店账号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6980"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -346,8 +346,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -411,6 +411,80 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -419,27 +493,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -448,6 +501,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -455,37 +516,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,61 +553,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -575,31 +575,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,55 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,90 +756,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,9 +799,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,34 +880,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,23 +889,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,148 +899,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
